--- a/cards/crossroad/craftedEvent.xlsx
+++ b/cards/crossroad/craftedEvent.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kilyjasso/Desktop/Gabba Game simulation/cards/crossroad/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D2D290-04AA-9D49-92B4-9A9DCEDF226B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>require</t>
   </si>
@@ -40,6 +31,12 @@
     <t>Place their character at the end of an undiscovered two-tile path, ensuring that the final tile is at least one tile away from any previously discovered tile.</t>
   </si>
   <si>
+    <t>going for a walk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wonder off the beaten path </t>
+  </si>
+  <si>
     <t>they smell the fingers or hands during there turn</t>
   </si>
   <si>
@@ -50,24 +47,157 @@
   </si>
   <si>
     <t>You hand in pealing off the bone, and reaks of puss, and wherever it else it's been</t>
+  </si>
+  <si>
+    <t>They say the word "Scary"</t>
+  </si>
+  <si>
+    <t>Move their character back one space towards the entrance space</t>
+  </si>
+  <si>
+    <t>Too scared to go on</t>
+  </si>
+  <si>
+    <t>They say the word "Left"</t>
+  </si>
+  <si>
+    <t>Move their character one space to the left, discovering a new tile if necessary</t>
+  </si>
+  <si>
+    <t>Unexpected left turn</t>
+  </si>
+  <si>
+    <t>They say the word "Right"</t>
+  </si>
+  <si>
+    <t>Move their character one space to the right, discovering a new tile if necessary</t>
+  </si>
+  <si>
+    <t>Unexpected right turn</t>
+  </si>
+  <si>
+    <t>They drink from a drink</t>
+  </si>
+  <si>
+    <t>Move all characters one space back towards the entrance space</t>
+  </si>
+  <si>
+    <t>Flash flood!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They curse/swear </t>
+  </si>
+  <si>
+    <t>Ignore their instrument's ability for 1 turn if they have their instrument</t>
+  </si>
+  <si>
+    <t>No cursing! Our band is for all ages!</t>
+  </si>
+  <si>
+    <t>They move 3 or more spaces in a single turn</t>
+  </si>
+  <si>
+    <t>If they would move 2 or more spaces on their next turn, they instead only move 1 space</t>
+  </si>
+  <si>
+    <t>Exhaustion</t>
+  </si>
+  <si>
+    <t>An enemy spawns in their space</t>
+  </si>
+  <si>
+    <t>Move their character 1 space in a random direction that they can move</t>
+  </si>
+  <si>
+    <t>Jumpscare!</t>
+  </si>
+  <si>
+    <t>They say the word "Horse", "Horses", or "Horsing Around"</t>
+  </si>
+  <si>
+    <t>They may make a long, neighing noise like a horse. If they don't, they draw a card from the buff/debuff deck</t>
+  </si>
+  <si>
+    <t>Possessed by a horse!</t>
+  </si>
+  <si>
+    <t>They say the word "Dog", "Dogs", "Doggy", "Doggies", or "Doggo"</t>
+  </si>
+  <si>
+    <t>They may make a loud barking noise like a dog. If they don't, they draw a card from the buff/debuff deck</t>
+  </si>
+  <si>
+    <t>Possessed by a dog!</t>
+  </si>
+  <si>
+    <t>They say the word "Cat", "Cats", or "Catty"</t>
+  </si>
+  <si>
+    <t>They may make a meowing noise like a cat. If they don't, they draw a card from the buff/debuff deck</t>
+  </si>
+  <si>
+    <t>Possessed by a cat!</t>
+  </si>
+  <si>
+    <t>They mispronounce a word</t>
+  </si>
+  <si>
+    <t>Spawn an enemy with 2 Attack and 2 Health in their space</t>
+  </si>
+  <si>
+    <t>Pronounciation demon</t>
+  </si>
+  <si>
+    <t>They attack 2 or more times in a single turn</t>
+  </si>
+  <si>
+    <t>They regain up to 2 Health, then spawn 2 enemies with 1 Attack and 2 Health in their space</t>
+  </si>
+  <si>
+    <t>They just keep coming!</t>
+  </si>
+  <si>
+    <t>They say the word "Bug", "Bugs", "Bugged", "Beetle", or "Beetles"</t>
+  </si>
+  <si>
+    <t>They take 1 damage, then each enemy in their space takes 1 damage</t>
+  </si>
+  <si>
+    <t>Slug bug!</t>
+  </si>
+  <si>
+    <t>They use a Gen Alpha brainrot word ("Skibidi", "Rizz", "Sigma", "Gyatt", etc.)</t>
+  </si>
+  <si>
+    <t>They start their next turn with 2 fewer action points</t>
+  </si>
+  <si>
+    <t>Blasphemous speech beyond human comprehension</t>
+  </si>
+  <si>
+    <t>They discover 3 or more tiles in a single turn</t>
+  </si>
+  <si>
+    <t>They draw a card from the Buff/Debuff deck. If it's a debuff, they discard it and draw a new one. Repeat this process until they draw a card that isn't a debuff</t>
+  </si>
+  <si>
+    <t>What could be around the bend?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="2">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -76,43 +206,36 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -302,31 +425,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="71.83203125" customWidth="1"/>
-    <col min="2" max="2" width="143.1640625" customWidth="1"/>
-    <col min="3" max="3" width="84" customWidth="1"/>
-    <col min="4" max="4" width="79.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="71.88"/>
+    <col customWidth="1" min="2" max="2" width="143.13"/>
+    <col customWidth="1" min="3" max="3" width="79.75"/>
+    <col customWidth="1" min="4" max="4" width="79.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -340,31 +458,203 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>